--- a/src/test/resources/data/jdgroupTA464.xlsx
+++ b/src/test/resources/data/jdgroupTA464.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB45A283-0BE0-4CF7-A6FE-63AC04B3BF46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="evs_SAP_OrderRelated++" sheetId="93" r:id="rId1"/>
@@ -94,12 +93,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8E845AD3-AE30-4C96-89F9-B87755D934FA}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9FD2D54C-4C47-43FF-AC07-608FF0386093}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,12 +137,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,12 +181,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-3D00-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2828,7 +2827,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -3080,7 +3079,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3533,7 +3532,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3542,9 +3540,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="205">
     <dxf>
@@ -5666,7 +5664,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5699,26 +5697,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5751,23 +5732,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5943,7 +5907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5993,7 +5957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6035,14 +5999,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6126,14 +6090,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6177,19 +6141,19 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"payUcreditcard"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6248,14 +6212,14 @@
     <cfRule type="duplicateValues" dxfId="142" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6387,8 +6351,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6396,7 +6360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6799,28 +6763,28 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7:S20 T7:T14 P7:P1048576 Q7:R22 P2:T3" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7:S20 T7:T14 P7:P1048576 Q7:R22 P2:T3">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576 N2:N3" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576 N2:N3">
       <formula1>"ID,Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576 M2:M1048576 I2:I3" xr:uid="{00000000-0002-0000-0E00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576 M2:M1048576 I2:I3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N6" xr:uid="{00000000-0002-0000-0E00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N6">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 P4:T6" xr:uid="{00000000-0002-0000-0E00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 P4:T6">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6" xr:uid="{00000000-0002-0000-0E00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6828,14 +6792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7234,18 +7198,18 @@
     <cfRule type="duplicateValues" dxfId="134" priority="109"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G10" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G10">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K10" xr:uid="{9298CA42-625D-49F2-9893-2C5C7FE2FF8D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K10">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H10" xr:uid="{8208F571-E827-4023-BEE7-AAD2510C6469}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H10">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{96B5E36F-A014-4B03-8C4A-79890E8A0CF7}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7253,13 +7217,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\37601\Documents\JDGroupEVSBranchWorkSpaces\TA421\JD_IC_TestAutomation\src\test\resources\data\[jdgroupTA403.xlsx]Products_Category'!#REF!</xm:f>
+            <xm:f>[1]Products_Category!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DDFFED6-083A-430D-81F1-429E963DF9B7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
@@ -7272,10 +7236,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -8590,18 +8554,18 @@
     <cfRule type="duplicateValues" dxfId="124" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16" xr:uid="{00000000-0002-0000-1000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16" xr:uid="{00000000-0002-0000-1000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8609,13 +8573,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -8628,7 +8592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9885,21 +9849,21 @@
     <cfRule type="duplicateValues" dxfId="118" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M32" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M32">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J11 Q2:U11 J32 Q32:U32" xr:uid="{00000000-0002-0000-1100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J11 Q2:U11 J32 Q32:U32">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11 O31:O32" xr:uid="{00000000-0002-0000-1100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11 O31:O32">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31:N32" xr:uid="{00000000-0002-0000-1100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31:N32">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9907,7 +9871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -9995,8 +9959,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -10004,7 +9968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10053,18 +10017,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -10195,7 +10159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10410,7 +10374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10453,14 +10417,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10509,18 +10473,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF86E7-394A-4818-8841-BE17250FED8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -10582,7 +10546,7 @@
       <c r="B5" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="C5" s="187" t="s">
+      <c r="C5" s="186" t="s">
         <v>90</v>
       </c>
     </row>
@@ -10630,7 +10594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10733,7 +10697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10889,7 +10853,7 @@
     <cfRule type="duplicateValues" dxfId="100" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-1800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10898,12 +10862,10 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEDE30A-3BA3-4037-9E8B-CF4B7EA0E9A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -10977,7 +10939,7 @@
       <c r="B5" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="C5" s="187" t="s">
+      <c r="C5" s="186" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="84" t="s">
@@ -10991,7 +10953,7 @@
       <c r="B6" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="187" t="s">
+      <c r="C6" s="186" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="84" t="s">
@@ -11019,7 +10981,7 @@
       <c r="B8" s="63" t="s">
         <v>604</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="186" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="84" t="s">
@@ -11033,7 +10995,7 @@
       <c r="B9" s="63" t="s">
         <v>604</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="186" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="84" t="s">
@@ -11063,7 +11025,7 @@
     <cfRule type="duplicateValues" dxfId="93" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{C213F2AE-6D36-4AFA-84EA-BFDC0B75B9EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11072,12 +11034,10 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A85990-0C92-487C-B9AE-14DB7A0A21B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -11092,7 +11052,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="57" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="84" t="s">
@@ -11293,18 +11253,19 @@
     <cfRule type="duplicateValues" dxfId="88" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2:E3" r:id="rId1" display="watlevi41@gmail.com" xr:uid="{0D74649D-03EE-42C2-BA08-45D909168D30}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{C88EB118-505E-4884-8B1B-EB69DC5D2C8A}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{68CDD99A-A202-47A2-BBED-8AFBDD59B531}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{E97D43E5-63C8-4742-B263-2C9746664C4F}"/>
-    <hyperlink ref="E5:E8" r:id="rId5" display="MichaelGHand@teleworm.us" xr:uid="{929643F1-1A86-4AD1-8762-532070330442}"/>
+    <hyperlink ref="E2:E3" r:id="rId1" display="watlevi41@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5:E8" r:id="rId5" display="MichaelGHand@teleworm.us"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11514,22 +11475,22 @@
     <cfRule type="duplicateValues" dxfId="86" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-1900-000001000000}"/>
-    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com" xr:uid="{00000000-0004-0000-1900-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-1900-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11645,16 +11606,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
@@ -11662,7 +11623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -12054,7 +12015,7 @@
     <cfRule type="duplicateValues" dxfId="80" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12063,7 +12024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12155,7 +12116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12218,7 +12179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12374,10 +12335,10 @@
     <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-1D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12386,7 +12347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12502,13 +12463,13 @@
     <cfRule type="duplicateValues" dxfId="73" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-1E00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-1E00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12517,7 +12478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12654,7 +12615,7 @@
     <cfRule type="duplicateValues" dxfId="71" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-1F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12662,7 +12623,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1F00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -12675,7 +12636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12781,7 +12742,7 @@
     <cfRule type="duplicateValues" dxfId="69" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-2000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12791,7 +12752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13037,25 +12998,25 @@
     <cfRule type="duplicateValues" dxfId="67" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-2100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-2100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-2100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-2100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-2100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-2100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-2100-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13065,7 +13026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13136,7 +13097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13191,7 +13152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13270,14 +13231,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13368,7 +13329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14018,25 +13979,25 @@
     <cfRule type="duplicateValues" dxfId="57" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-2500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-2500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-2500-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-2500-000001000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-2500-000002000000}"/>
-    <hyperlink ref="D5:D6" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-2500-000003000000}"/>
+    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D5:D6" r:id="rId4" display="original2Ic@automationjdg.co.za"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -14694,7 +14655,7 @@
     <cfRule type="duplicateValues" dxfId="51" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-2600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14703,7 +14664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15157,7 +15118,7 @@
     <cfRule type="duplicateValues" dxfId="49" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-2700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15166,7 +15127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15672,7 +15633,7 @@
     <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-2800-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15680,7 +15641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15942,19 +15903,19 @@
     <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-2900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-2900-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16919,17 +16880,17 @@
     <cfRule type="duplicateValues" dxfId="39" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-2A00-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-2A00-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-2A00-000003000000}"/>
-    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-2A00-000004000000}"/>
-    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-2A00-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-2A00-000006000000}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-2A00-000007000000}"/>
-    <hyperlink ref="O34" r:id="rId9" xr:uid="{00000000-0004-0000-2A00-000008000000}"/>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-2A00-000009000000}"/>
-    <hyperlink ref="O35" r:id="rId10" xr:uid="{00000000-0004-0000-2A00-00000A000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O34" r:id="rId9"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
+    <hyperlink ref="O35" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
@@ -16937,7 +16898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17107,7 +17068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17270,19 +17231,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-2C00-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-2C00-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-2C00-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-2C00-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-2C00-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-2C00-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -17525,14 +17486,14 @@
     <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2D00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18142,7 +18103,7 @@
     <cfRule type="duplicateValues" dxfId="196" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18150,7 +18111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18448,14 +18409,14 @@
     <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-2E00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18750,14 +18711,14 @@
     <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-2F00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19008,14 +18969,14 @@
     <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-3000-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D86E-F4A0-410B-BDE1-35780DB04F3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19071,7 +19032,7 @@
       <c r="D2" s="107" t="s">
         <v>592</v>
       </c>
-      <c r="E2" s="188" t="s">
+      <c r="E2" s="187" t="s">
         <v>835</v>
       </c>
       <c r="F2" s="107">
@@ -19097,12 +19058,10 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19160,7 +19119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19268,7 +19227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -19368,7 +19327,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-3300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Reuse,Redeem"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19378,7 +19337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19462,7 +19421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20049,42 +20008,42 @@
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-3500-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-3500-000001000000}"/>
-    <hyperlink ref="F13" r:id="rId3" display="Password@123" xr:uid="{00000000-0004-0000-3500-000002000000}"/>
-    <hyperlink ref="F22" r:id="rId4" xr:uid="{00000000-0004-0000-3500-000003000000}"/>
-    <hyperlink ref="F23" r:id="rId5" xr:uid="{00000000-0004-0000-3500-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-3500-000005000000}"/>
-    <hyperlink ref="F14" r:id="rId7" display="Password@123" xr:uid="{00000000-0004-0000-3500-000006000000}"/>
-    <hyperlink ref="F12" r:id="rId8" display="Password@123" xr:uid="{00000000-0004-0000-3500-000007000000}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{00000000-0004-0000-3500-000008000000}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-3500-000009000000}"/>
-    <hyperlink ref="F17" r:id="rId11" display="Password@123" xr:uid="{00000000-0004-0000-3500-00000A000000}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{00000000-0004-0000-3500-00000B000000}"/>
-    <hyperlink ref="F18" r:id="rId13" display="Password@123" xr:uid="{00000000-0004-0000-3500-00000C000000}"/>
-    <hyperlink ref="E20" r:id="rId14" xr:uid="{00000000-0004-0000-3500-00000D000000}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{00000000-0004-0000-3500-00000E000000}"/>
-    <hyperlink ref="E24" r:id="rId16" xr:uid="{00000000-0004-0000-3500-00000F000000}"/>
-    <hyperlink ref="E25" r:id="rId17" xr:uid="{00000000-0004-0000-3500-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId18" xr:uid="{00000000-0004-0000-3500-000011000000}"/>
-    <hyperlink ref="F19" r:id="rId19" display="Password@123" xr:uid="{00000000-0004-0000-3500-000012000000}"/>
-    <hyperlink ref="E19" r:id="rId20" xr:uid="{00000000-0004-0000-3500-000013000000}"/>
-    <hyperlink ref="E11" r:id="rId21" xr:uid="{00000000-0004-0000-3500-000014000000}"/>
-    <hyperlink ref="F11" r:id="rId22" display="Password@123" xr:uid="{00000000-0004-0000-3500-000015000000}"/>
-    <hyperlink ref="E15" r:id="rId23" xr:uid="{00000000-0004-0000-3500-000016000000}"/>
-    <hyperlink ref="F15" r:id="rId24" display="Password@123" xr:uid="{00000000-0004-0000-3500-000017000000}"/>
-    <hyperlink ref="E8" r:id="rId25" xr:uid="{00000000-0004-0000-3500-000018000000}"/>
-    <hyperlink ref="E10" r:id="rId26" xr:uid="{00000000-0004-0000-3500-000019000000}"/>
-    <hyperlink ref="F10" r:id="rId27" xr:uid="{00000000-0004-0000-3500-00001A000000}"/>
-    <hyperlink ref="E9" r:id="rId28" xr:uid="{00000000-0004-0000-3500-00001B000000}"/>
-    <hyperlink ref="F9" r:id="rId29" xr:uid="{00000000-0004-0000-3500-00001C000000}"/>
-    <hyperlink ref="F3:F7" r:id="rId30" display="Password@123" xr:uid="{00000000-0004-0000-3500-00001D000000}"/>
-    <hyperlink ref="F3" r:id="rId31" xr:uid="{00000000-0004-0000-3500-00001E000000}"/>
-    <hyperlink ref="F4" r:id="rId32" xr:uid="{00000000-0004-0000-3500-00001F000000}"/>
-    <hyperlink ref="F5" r:id="rId33" xr:uid="{00000000-0004-0000-3500-000020000000}"/>
-    <hyperlink ref="F6" r:id="rId34" xr:uid="{00000000-0004-0000-3500-000021000000}"/>
-    <hyperlink ref="F7" r:id="rId35" xr:uid="{00000000-0004-0000-3500-000022000000}"/>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-3500-000023000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3" display="Password@123"/>
+    <hyperlink ref="F22" r:id="rId4"/>
+    <hyperlink ref="F23" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="F14" r:id="rId7" display="Password@123"/>
+    <hyperlink ref="F12" r:id="rId8" display="Password@123"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId10"/>
+    <hyperlink ref="F17" r:id="rId11" display="Password@123"/>
+    <hyperlink ref="E18" r:id="rId12"/>
+    <hyperlink ref="F18" r:id="rId13" display="Password@123"/>
+    <hyperlink ref="E20" r:id="rId14"/>
+    <hyperlink ref="E21" r:id="rId15"/>
+    <hyperlink ref="E24" r:id="rId16"/>
+    <hyperlink ref="E25" r:id="rId17"/>
+    <hyperlink ref="E16" r:id="rId18"/>
+    <hyperlink ref="F19" r:id="rId19" display="Password@123"/>
+    <hyperlink ref="E19" r:id="rId20"/>
+    <hyperlink ref="E11" r:id="rId21"/>
+    <hyperlink ref="F11" r:id="rId22" display="Password@123"/>
+    <hyperlink ref="E15" r:id="rId23"/>
+    <hyperlink ref="F15" r:id="rId24" display="Password@123"/>
+    <hyperlink ref="E8" r:id="rId25"/>
+    <hyperlink ref="E10" r:id="rId26"/>
+    <hyperlink ref="F10" r:id="rId27"/>
+    <hyperlink ref="E9" r:id="rId28"/>
+    <hyperlink ref="F9" r:id="rId29"/>
+    <hyperlink ref="F3:F7" r:id="rId30" display="Password@123"/>
+    <hyperlink ref="F3" r:id="rId31"/>
+    <hyperlink ref="F4" r:id="rId32"/>
+    <hyperlink ref="F5" r:id="rId33"/>
+    <hyperlink ref="F6" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
@@ -20092,7 +20051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20306,14 +20265,14 @@
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-3600-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -20502,7 +20461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20589,15 +20548,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-3700-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-3700-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20653,7 +20612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20754,14 +20713,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-3900-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20885,7 +20844,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="Welc0me@2021" xr:uid="{00000000-0004-0000-3A00-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="Welc0me@2021"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -20893,7 +20852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21020,9 +20979,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-3B00-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-3B00-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-3B00-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -21030,7 +20989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21087,7 +21046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21556,17 +21515,17 @@
     <cfRule type="duplicateValues" dxfId="0" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-3D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-3D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-3D00-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-3D00-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-3D00-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -21575,7 +21534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21616,7 +21575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21720,7 +21679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21924,14 +21883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
+      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -25502,267 +25461,267 @@
     <cfRule type="duplicateValues" dxfId="157" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
-    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
-    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000025000000}"/>
-    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
-    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
-    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
-    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000029000000}"/>
-    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-00002A000000}"/>
-    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-00002B000000}"/>
-    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-00002C000000}"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00002D000000}"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00002E000000}"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00002F000000}"/>
-    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-000030000000}"/>
-    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000031000000}"/>
-    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000032000000}"/>
-    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-000033000000}"/>
-    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000034000000}"/>
-    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000035000000}"/>
-    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000036000000}"/>
-    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000037000000}"/>
-    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000038000000}"/>
-    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000039000000}"/>
-    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00003A000000}"/>
-    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-00003B000000}"/>
-    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-00003C000000}"/>
-    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00003D000000}"/>
-    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00003E000000}"/>
-    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-00003F000000}"/>
-    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000040000000}"/>
-    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000041000000}"/>
-    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000042000000}"/>
-    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-000043000000}"/>
-    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-000044000000}"/>
-    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000045000000}"/>
-    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000046000000}"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000047000000}"/>
-    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000048000000}"/>
-    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000049000000}"/>
-    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-00004A000000}"/>
-    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00004B000000}"/>
-    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-00004C000000}"/>
-    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-00004D000000}"/>
-    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-00004E000000}"/>
-    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-00004F000000}"/>
-    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000050000000}"/>
-    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000051000000}"/>
-    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000052000000}"/>
-    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-000053000000}"/>
-    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000054000000}"/>
-    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000055000000}"/>
-    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-000056000000}"/>
-    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000057000000}"/>
-    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000058000000}"/>
-    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-000059000000}"/>
-    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00005A000000}"/>
-    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00005B000000}"/>
-    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-00005C000000}"/>
-    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-00005D000000}"/>
-    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-00005E000000}"/>
-    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-00005F000000}"/>
-    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-000060000000}"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000061000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000062000000}"/>
-    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000063000000}"/>
-    <hyperlink ref="H33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-000064000000}"/>
-    <hyperlink ref="I33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000065000000}"/>
-    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000066000000}"/>
-    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-000067000000}"/>
-    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000068000000}"/>
-    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000069000000}"/>
-    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0600-00006A000000}"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0600-00006B000000}"/>
-    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00006C000000}"/>
-    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-00006D000000}"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00006E000000}"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-00006F000000}"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000070000000}"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-000071000000}"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0600-000072000000}"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0600-000073000000}"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0600-000074000000}"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0600-000075000000}"/>
-    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0600-000076000000}"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000077000000}"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-000078000000}"/>
-    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0600-000079000000}"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-00007A000000}"/>
-    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00007B000000}"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-00007C000000}"/>
-    <hyperlink ref="J54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-00007D000000}"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-00007E000000}"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0600-00007F000000}"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0600-000080000000}"/>
-    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000081000000}"/>
-    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0600-000082000000}"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0600-000083000000}"/>
-    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0600-000084000000}"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0600-000085000000}"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000086000000}"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000087000000}"/>
-    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0600-000088000000}"/>
-    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-000089000000}"/>
-    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-00008A000000}"/>
-    <hyperlink ref="J35" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0600-00008B000000}"/>
-    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-00008C000000}"/>
-    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-00008D000000}"/>
-    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00008E000000}"/>
-    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-00008F000000}"/>
-    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0600-000090000000}"/>
-    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000091000000}"/>
-    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-000092000000}"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0600-000093000000}"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0600-000094000000}"/>
-    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0600-000095000000}"/>
-    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0600-000096000000}"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-000097000000}"/>
-    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-000098000000}"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0600-000099000000}"/>
-    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-00009A000000}"/>
-    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00009B000000}"/>
-    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-00009C000000}"/>
-    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-00009D000000}"/>
-    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-00009E000000}"/>
-    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-00009F000000}"/>
-    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-0000A0000000}"/>
-    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000A1000000}"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000A2000000}"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000A3000000}"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0600-0000A4000000}"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0600-0000A5000000}"/>
-    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0600-0000A6000000}"/>
-    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0600-0000A7000000}"/>
-    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000A8000000}"/>
-    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000A9000000}"/>
-    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0600-0000AA000000}"/>
-    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0600-0000AB000000}"/>
-    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000AC000000}"/>
-    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000AD000000}"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000AE000000}"/>
-    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0600-0000AF000000}"/>
-    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000B0000000}"/>
-    <hyperlink ref="K71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000B1000000}"/>
-    <hyperlink ref="H71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0600-0000B2000000}"/>
-    <hyperlink ref="I71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000B3000000}"/>
-    <hyperlink ref="J71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000B4000000}"/>
-    <hyperlink ref="L71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0600-0000B5000000}"/>
-    <hyperlink ref="M71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0600-0000B6000000}"/>
-    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0600-0000B7000000}"/>
-    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000B8000000}"/>
-    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0600-0000B9000000}"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0600-0000BA000000}"/>
-    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000BB000000}"/>
-    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0600-0000BC000000}"/>
-    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000BD000000}"/>
-    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000BE000000}"/>
-    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0600-0000BF000000}"/>
-    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-0000C0000000}"/>
-    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-0000C1000000}"/>
-    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-0000C2000000}"/>
-    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-0000C3000000}"/>
-    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-0000C4000000}"/>
-    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-0000C5000000}"/>
-    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-0000C6000000}"/>
-    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000C7000000}"/>
-    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-0000C8000000}"/>
-    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-0000C9000000}"/>
-    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0600-0000CA000000}"/>
-    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-0000CB000000}"/>
-    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-0000CC000000}"/>
-    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000CD000000}"/>
-    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000CE000000}"/>
-    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0600-0000CF000000}"/>
-    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-0000D0000000}"/>
-    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0600-0000D1000000}"/>
-    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-0000D2000000}"/>
-    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-0000D3000000}"/>
-    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0600-0000D4000000}"/>
-    <hyperlink ref="L54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000D5000000}"/>
-    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000D6000000}"/>
-    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000D7000000}"/>
-    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000D8000000}"/>
-    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000D9000000}"/>
-    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0600-0000DA000000}"/>
-    <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0600-0000DB000000}"/>
-    <hyperlink ref="G74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear" xr:uid="{00000000-0004-0000-0600-0000DC000000}"/>
-    <hyperlink ref="G78" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000DD000000}"/>
-    <hyperlink ref="G79" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000DE000000}"/>
-    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000DF000000}"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0600-0000E0000000}"/>
-    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E1000000}"/>
-    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E2000000}"/>
-    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E3000000}"/>
-    <hyperlink ref="G76:G77" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E4000000}"/>
-    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000E5000000}"/>
-    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0600-0000E6000000}"/>
-    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000E7000000}"/>
-    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000E8000000}"/>
-    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000E9000000}"/>
-    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0600-0000EA000000}"/>
-    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000EB000000}"/>
-    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000EC000000}"/>
-    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0600-0000ED000000}"/>
-    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000EE000000}"/>
-    <hyperlink ref="G85" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login" xr:uid="{00000000-0004-0000-0600-0000EF000000}"/>
-    <hyperlink ref="H88" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F0000000}"/>
-    <hyperlink ref="H89" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F1000000}"/>
-    <hyperlink ref="H90" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F2000000}"/>
-    <hyperlink ref="H91" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F3000000}"/>
-    <hyperlink ref="M92" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F4000000}"/>
-    <hyperlink ref="J92" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-0000F5000000}"/>
-    <hyperlink ref="I92" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-0000F6000000}"/>
-    <hyperlink ref="K92" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-0000F7000000}"/>
-    <hyperlink ref="N92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-0000F8000000}"/>
-    <hyperlink ref="M93" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0600-0000F9000000}"/>
-    <hyperlink ref="H93" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-0000FA000000}"/>
-    <hyperlink ref="J93" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0600-0000FB000000}"/>
-    <hyperlink ref="I93" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0600-0000FC000000}"/>
-    <hyperlink ref="K93" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0600-0000FD000000}"/>
-    <hyperlink ref="N93" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-0000FE000000}"/>
-    <hyperlink ref="G94" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0600-0000FF000000}"/>
-    <hyperlink ref="H94" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0600-000000010000}"/>
-    <hyperlink ref="I94" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0600-000001010000}"/>
-    <hyperlink ref="K94" location="'validatePaymentOption++'!A1" display="validatePaymentOption" xr:uid="{00000000-0004-0000-0600-000002010000}"/>
-    <hyperlink ref="L93" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0600-000003010000}"/>
-    <hyperlink ref="O92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0600-000004010000}"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J54" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
+    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J35" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="J71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="L71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="M71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
+    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="G74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear"/>
+    <hyperlink ref="G78" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G79" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G76:G77" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G85" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login"/>
+    <hyperlink ref="H88" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H89" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H90" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H91" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M92" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J92" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I92" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="K92" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="M93" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H93" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J93" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I93" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="K93" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N93" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G94" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H94" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I94" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K94" location="'validatePaymentOption++'!A1" display="validatePaymentOption"/>
+    <hyperlink ref="L93" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -25770,7 +25729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25874,7 +25833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25978,7 +25937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26351,7 +26310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26455,7 +26414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
@@ -26559,14 +26518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26996,7 +26955,7 @@
       <c r="H12" s="116" t="s">
         <v>860</v>
       </c>
-      <c r="I12" s="186" t="s">
+      <c r="I12" s="159" t="s">
         <v>861</v>
       </c>
       <c r="J12" s="57" t="s">
@@ -27067,7 +27026,7 @@
       <c r="D15" s="117" t="s">
         <v>869</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="118" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="116" t="s">
@@ -27206,35 +27165,39 @@
     <cfRule type="duplicateValues" dxfId="143" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="H2" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="I2" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="J2" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="K2" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="M2" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="N2" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
-    <hyperlink ref="G3" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
-    <hyperlink ref="G4:G7" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
-    <hyperlink ref="O2" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
-    <hyperlink ref="L2" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
-    <hyperlink ref="G8" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
-    <hyperlink ref="G9" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
-    <hyperlink ref="G10" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
-    <hyperlink ref="G12" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{0FF01625-E5C3-4A46-8E8E-4EE7F1EA2BCB}"/>
-    <hyperlink ref="J12" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{4ECDDBF0-7A8A-4710-A0F1-5484ECF08469}"/>
-    <hyperlink ref="G14:G15" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{0B81E129-796A-46F4-B960-EF7BE0D3F933}"/>
-    <hyperlink ref="J15" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{37C59765-4410-4B2E-A828-F6FC24FD41F1}"/>
-    <hyperlink ref="I15" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{726B669E-B7E6-4FEC-8F26-776FE119EA8D}"/>
-    <hyperlink ref="I14" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{D5E9FD25-BD8E-4EA7-A11D-724088C0710C}"/>
-    <hyperlink ref="L15" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{3721147A-CB2C-412E-AD0B-A6155B73049C}"/>
-    <hyperlink ref="K16" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{A51AFAE6-9B83-43E5-A16C-018266552847}"/>
-    <hyperlink ref="J16" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{E64A4F51-307F-45C7-B208-8198677C2881}"/>
-    <hyperlink ref="G17" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{9EA86AAF-B216-4D76-BE87-2DF2A5B2EE2A}"/>
-    <hyperlink ref="J17" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{57A98E08-04DB-45FF-A806-9123549F5CE0}"/>
-    <hyperlink ref="I17" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{16B6831B-82BB-40E5-87B5-C08EEA6B306D}"/>
-    <hyperlink ref="G13" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{BB191D47-E405-4FC1-B6E6-DD2C59165CE5}"/>
-    <hyperlink ref="H16" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{66444083-2163-4E37-A1BB-8C1CC3422CAC}"/>
-    <hyperlink ref="G16" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{F0126345-5184-4769-9238-BE6C57A3F4D9}"/>
+    <hyperlink ref="G2" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H2" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="I2" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="J2" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="K2" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="M2" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="N2" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="G3" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="G4:G7" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="O2" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated"/>
+    <hyperlink ref="L2" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="G8" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="G9" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="G10" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="J12" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G14:G15" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="J15" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I15" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="I14" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="L15" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K16" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="J16" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G17" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="J17" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I17" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G13" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H16" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="G16" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G11" location="'evs_NavigetoWishlist++'!A1" display="evs_NavigetoWishlist"/>
+    <hyperlink ref="G12" location="'evs_NavigetoWishlist++'!A1" display="evs_NavigetoWishlist"/>
+    <hyperlink ref="H11" location="'evs_ClearWishList++'!A1" display="evs_ClearWishList"/>
+    <hyperlink ref="H12" location="'evs_ClearWishList++'!A1" display="evs_ClearWishList"/>
+    <hyperlink ref="I12" location="'evs_RemoveFromcart++'!A1" display="evs_RemoveFromcart"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -27242,7 +27205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27286,7 +27249,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27442,21 +27405,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27479,6 +27442,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27493,12 +27464,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>